--- a/src/main/resources/caseconf/ContactQuery/Case_userContactQuery.xlsx
+++ b/src/main/resources/caseconf/ContactQuery/Case_userContactQuery.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9040" yWindow="-28800" windowWidth="51200" windowHeight="28800"/>
+    <workbookView xWindow="-9040" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="usercontactquery" sheetId="2" r:id="rId1"/>
@@ -383,16 +383,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试自动化', '00620980987787', null, '3', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>查询成功-多条</t>
     <rPh sb="0" eb="1">
       <t>cha'xun</t>
@@ -407,17 +397,6 @@
       <t>tiao</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试自动化', '00620980987787', null, '3', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');
-insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试', '00620980989999', '工作', '2', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -517,6 +496,25 @@
     ]
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试自动化', '00620980987787', null, '3', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');</t>
+  </si>
+  <si>
+    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试自动化', '00620980987787', null, '3', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');
+insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试', '00620980989999', '工作', '2', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');</t>
   </si>
 </sst>
 </file>
@@ -978,10 +976,10 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1062,7 +1060,7 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="20" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>39</v>
@@ -1081,7 +1079,7 @@
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N2" s="12"/>
     </row>
@@ -1093,14 +1091,14 @@
         <v>19</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="20" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>39</v>
@@ -1119,7 +1117,7 @@
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N3" s="12"/>
     </row>
@@ -1153,7 +1151,7 @@
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" s="12"/>
     </row>
@@ -1187,7 +1185,7 @@
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N5" s="12"/>
     </row>
@@ -1221,7 +1219,7 @@
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -1255,7 +1253,7 @@
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N7" s="12"/>
     </row>
@@ -1264,7 +1262,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>29</v>
@@ -1289,7 +1287,7 @@
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N8" s="9"/>
     </row>

--- a/src/main/resources/caseconf/ContactQuery/Case_userContactQuery.xlsx
+++ b/src/main/resources/caseconf/ContactQuery/Case_userContactQuery.xlsx
@@ -448,21 +448,16 @@
     "successful":1,
     "data":[
         {
-            "userId":710887744879529984,
-            "tenantId":"9999",
+            "id":112719,
+            "userId":699222007535509999,
+            "tenantId":"1001",
             "tenantUserId":"111111",
-            "bloodType":"O",
-            "religion":"汉族",
-            "workingStatus":"在职",
-            "bornCity":"河北",
-            "country":"河北省",
-            "province":"衡水市",
-            "city":"景县",
-            "district":"庙镇",
-            "street":"北街",
-            "village":"东王",
-            "streetCodeRt":"街道rt",
-            "streetCodeRw":"街道rw"
+            "contactName":"测试自动化",
+            "contactPhone":"00620980987787",
+            "relationType":3,
+            "createTime":"2020-04-17T14:29:11.000+0800",
+            "updateTime":"2020-04-17T14:29:11.000+0800",
+            "yn":0
         }
     ]
 }</t>
@@ -475,15 +470,19 @@
     "successful":1,
     "data":[
         {
+            "id":112720,
             "userId":699222007535509999,
             "tenantId":"1001",
             "tenantUserId":"111111",
             "contactName":"测试自动化",
             "contactPhone":"00620980987787",
             "relationType":3,
+            "createTime":"2020-04-17T14:29:11.000+0800",
+            "updateTime":"2020-04-17T14:29:11.000+0800",
             "yn":0
         },
         {
+            "id":112721,
             "userId":699222007535509999,
             "tenantId":"1001",
             "tenantUserId":"111111",
@@ -491,6 +490,8 @@
             "contactPhone":"00620980989999",
             "relationType":2,
             "job":"工作",
+            "createTime":"2020-04-17T14:29:11.000+0800",
+            "updateTime":"2020-04-17T14:29:11.000+0800",
             "yn":0
         }
     ]
@@ -504,7 +505,8 @@
 insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试自动化', '00620980987787', null, '3', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');</t>
+insert into `seraph`.`user_contact` ( `id`, `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '112719','699222007535509999', '1001', '111111', null, '测试自动化', '00620980987787', null, '3', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -513,8 +515,9 @@
 insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试自动化', '00620980987787', null, '3', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');
-insert into `seraph`.`user_contact` ( `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', null, '测试', '00620980989999', '工作', '2', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');</t>
+insert into `seraph`.`user_contact` (`id`, `user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '112720','699222007535509999', '1001', '111111', null, '测试自动化', '00620980987787', null, '3', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');
+insert into `seraph`.`user_contact` ( `id`,`user_id`, `tenant_id`, `tenant_user_id`, `company`, `contact_name`, `contact_phone`, `job`, `relation_type`, `create_time`, `update_time`, `yn`) values ( '112721','699222007535509999', '1001', '111111', null, '测试', '00620980989999', '工作', '2', '2020-04-17 13:29:11', '2020-04-17 13:29:11', '0');</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -979,7 +982,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
